--- a/jpcore-r4/feature/swg-diagnosticreport-cardinality/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg-diagnosticreport-cardinality/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13576" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13575" uniqueCount="1284">
   <si>
     <t>Property</t>
   </si>
@@ -2472,13 +2472,11 @@
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
   </si>
   <si>
-    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
-  </si>
-  <si>
-    <t>Code for a known / defined timing pattern.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
+    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
+【JP Core仕様】JAMI標準用法コード(16桁)を使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMI_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -20054,29 +20052,27 @@
       <c r="W138" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X138" t="s" s="2">
+      <c r="X138" s="2"/>
+      <c r="Y138" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="Y138" t="s" s="2">
+      <c r="Z138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE138" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>78</v>
@@ -20097,7 +20093,7 @@
         <v>80</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>80</v>
@@ -20108,7 +20104,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -20134,13 +20130,13 @@
         <v>297</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -20190,7 +20186,7 @@
         <v>80</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>78</v>
@@ -20211,18 +20207,18 @@
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN139" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>796</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -20248,16 +20244,16 @@
         <v>189</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="M140" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>80</v>
@@ -20286,25 +20282,25 @@
       </c>
       <c r="X140" s="2"/>
       <c r="Y140" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE140" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>78</v>
@@ -20325,18 +20321,18 @@
         <v>80</v>
       </c>
       <c r="AL140" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN140" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>805</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -20448,7 +20444,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -20562,7 +20558,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -20588,10 +20584,10 @@
         <v>327</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>810</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>594</v>
@@ -20678,7 +20674,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -20790,7 +20786,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20904,7 +20900,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -21020,7 +21016,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -21134,7 +21130,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -21250,7 +21246,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -21366,7 +21362,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -21482,7 +21478,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -21598,7 +21594,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -21624,16 +21620,16 @@
         <v>189</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="L152" t="s" s="2">
+      <c r="M152" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>80</v>
@@ -21662,25 +21658,25 @@
       </c>
       <c r="X152" s="2"/>
       <c r="Y152" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE152" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>78</v>
@@ -21701,18 +21697,18 @@
         <v>80</v>
       </c>
       <c r="AL152" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN152" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>827</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -21824,7 +21820,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21938,7 +21934,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21964,10 +21960,10 @@
         <v>327</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M155" t="s" s="2">
         <v>594</v>
@@ -22054,7 +22050,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -22166,7 +22162,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -22280,7 +22276,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -22396,7 +22392,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -22510,7 +22506,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22626,7 +22622,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22742,7 +22738,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22858,7 +22854,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22884,10 +22880,10 @@
         <v>90</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>840</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>376</v>
@@ -22974,7 +22970,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -23000,16 +22996,16 @@
         <v>189</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>843</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="M164" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>846</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>80</v>
@@ -23037,28 +23033,28 @@
         <v>265</v>
       </c>
       <c r="X164" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="Y164" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="Y164" t="s" s="2">
+      <c r="Z164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE164" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>78</v>
@@ -23079,18 +23075,18 @@
         <v>80</v>
       </c>
       <c r="AL164" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN164" t="s" s="2">
         <v>850</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN164" t="s" s="2">
-        <v>851</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -23202,7 +23198,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23316,7 +23312,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -23342,13 +23338,13 @@
         <v>327</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N167" t="s" s="2">
         <v>331</v>
@@ -23430,10 +23426,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>80</v>
@@ -23458,10 +23454,10 @@
         <v>327</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>857</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>858</v>
       </c>
       <c r="M168" t="s" s="2">
         <v>594</v>
@@ -23496,7 +23492,7 @@
       </c>
       <c r="X168" s="2"/>
       <c r="Y168" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>80</v>
@@ -23546,7 +23542,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23658,7 +23654,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23772,7 +23768,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23798,10 +23794,10 @@
         <v>102</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="M171" t="s" s="2">
         <v>599</v>
@@ -23814,7 +23810,7 @@
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>80</v>
@@ -23888,7 +23884,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -24002,7 +23998,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -24028,10 +24024,10 @@
         <v>108</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>575</v>
@@ -24118,7 +24114,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24144,10 +24140,10 @@
         <v>90</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>575</v>
@@ -24234,7 +24230,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24350,10 +24346,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>80</v>
@@ -24378,10 +24374,10 @@
         <v>327</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>594</v>
@@ -24416,7 +24412,7 @@
       </c>
       <c r="X176" s="2"/>
       <c r="Y176" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>80</v>
@@ -24466,7 +24462,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24578,7 +24574,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24692,7 +24688,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24718,10 +24714,10 @@
         <v>102</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>599</v>
@@ -24734,7 +24730,7 @@
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R179" t="s" s="2">
         <v>80</v>
@@ -24808,7 +24804,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24922,7 +24918,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24948,10 +24944,10 @@
         <v>108</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="L181" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="M181" t="s" s="2">
         <v>575</v>
@@ -25038,7 +25034,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25064,10 +25060,10 @@
         <v>90</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>575</v>
@@ -25154,7 +25150,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25270,7 +25266,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25296,10 +25292,10 @@
         <v>90</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="M184" t="s" s="2">
         <v>376</v>
@@ -25386,7 +25382,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25412,10 +25408,10 @@
         <v>638</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -25466,7 +25462,7 @@
         <v>80</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>78</v>
@@ -25493,12 +25489,12 @@
         <v>80</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25610,7 +25606,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25724,7 +25720,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25750,16 +25746,16 @@
         <v>189</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="L188" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25788,25 +25784,25 @@
       </c>
       <c r="X188" s="2"/>
       <c r="Y188" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE188" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>899</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25833,12 +25829,12 @@
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25950,7 +25946,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -26064,7 +26060,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -26090,10 +26086,10 @@
         <v>327</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>594</v>
@@ -26180,7 +26176,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26292,7 +26288,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26406,7 +26402,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26432,10 +26428,10 @@
         <v>102</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="M194" t="s" s="2">
         <v>599</v>
@@ -26522,7 +26518,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26636,7 +26632,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26662,10 +26658,10 @@
         <v>108</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M196" t="s" s="2">
         <v>575</v>
@@ -26752,7 +26748,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26778,10 +26774,10 @@
         <v>90</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M197" t="s" s="2">
         <v>575</v>
@@ -26868,7 +26864,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26984,7 +26980,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -27100,7 +27096,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27123,19 +27119,19 @@
         <v>80</v>
       </c>
       <c r="J200" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="K200" t="s" s="2">
         <v>917</v>
       </c>
-      <c r="K200" t="s" s="2">
+      <c r="L200" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>918</v>
       </c>
-      <c r="L200" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>920</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27182,7 +27178,7 @@
         <v>315</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27194,27 +27190,27 @@
         <v>144</v>
       </c>
       <c r="AI200" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL200" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="AJ200" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK200" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL200" t="s" s="2">
+      <c r="AM200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN200" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="AM200" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN200" t="s" s="2">
-        <v>924</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27326,7 +27322,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27440,7 +27436,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27466,10 +27462,10 @@
         <v>660</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>662</v>
@@ -27556,7 +27552,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27585,7 +27581,7 @@
         <v>668</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
@@ -27672,7 +27668,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27698,10 +27694,10 @@
         <v>90</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
@@ -27786,7 +27782,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27812,10 +27808,10 @@
         <v>102</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
@@ -27848,7 +27844,7 @@
       </c>
       <c r="X206" s="2"/>
       <c r="Y206" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>80</v>
@@ -27898,7 +27894,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27924,10 +27920,10 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>696</v>
@@ -28014,10 +28010,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C208" t="s" s="2">
         <v>80</v>
@@ -28039,19 +28035,19 @@
         <v>80</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>941</v>
       </c>
-      <c r="M208" t="s" s="2">
-        <v>942</v>
-      </c>
       <c r="N208" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -28100,7 +28096,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -28112,27 +28108,27 @@
         <v>144</v>
       </c>
       <c r="AI208" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL208" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="AJ208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL208" t="s" s="2">
+      <c r="AM208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN208" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="AM208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN208" t="s" s="2">
-        <v>924</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28244,7 +28240,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28358,7 +28354,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28384,10 +28380,10 @@
         <v>660</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="L211" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>944</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>662</v>
@@ -28474,7 +28470,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28503,7 +28499,7 @@
         <v>668</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
@@ -28590,7 +28586,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28616,10 +28612,10 @@
         <v>90</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
@@ -28704,7 +28700,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28730,10 +28726,10 @@
         <v>102</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L214" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
@@ -28818,7 +28814,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28844,10 +28840,10 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>696</v>
@@ -28882,7 +28878,7 @@
       </c>
       <c r="X215" s="2"/>
       <c r="Y215" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28932,7 +28928,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28955,19 +28951,19 @@
         <v>89</v>
       </c>
       <c r="J216" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="K216" t="s" s="2">
         <v>950</v>
       </c>
-      <c r="K216" t="s" s="2">
+      <c r="L216" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="M216" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -29014,7 +29010,7 @@
         <v>315</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -29035,18 +29031,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN216" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN216" t="s" s="2">
-        <v>957</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29158,7 +29154,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29272,7 +29268,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29295,13 +29291,13 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="K219" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="K219" t="s" s="2">
-        <v>962</v>
-      </c>
       <c r="L219" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -29352,7 +29348,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29373,7 +29369,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29384,7 +29380,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29496,7 +29492,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29610,7 +29606,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29636,10 +29632,10 @@
         <v>660</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>662</v>
@@ -29726,7 +29722,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29842,7 +29838,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29868,10 +29864,10 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>970</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>971</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
@@ -29956,7 +29952,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29982,10 +29978,10 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" t="s" s="2">
@@ -30018,7 +30014,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -30068,7 +30064,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30094,10 +30090,10 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M226" t="s" s="2">
         <v>696</v>
@@ -30184,7 +30180,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30207,13 +30203,13 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -30264,7 +30260,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30285,7 +30281,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30296,7 +30292,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30408,7 +30404,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30522,7 +30518,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30548,10 +30544,10 @@
         <v>660</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="L230" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>944</v>
       </c>
       <c r="M230" t="s" s="2">
         <v>662</v>
@@ -30638,7 +30634,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30754,7 +30750,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30780,10 +30776,10 @@
         <v>90</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L232" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
@@ -30868,7 +30864,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30894,10 +30890,10 @@
         <v>102</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" t="s" s="2">
@@ -30982,7 +30978,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -31008,10 +31004,10 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M234" t="s" s="2">
         <v>696</v>
@@ -31098,10 +31094,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C235" t="s" s="2">
         <v>80</v>
@@ -31123,19 +31119,19 @@
         <v>89</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L235" t="s" s="2">
+      <c r="M235" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>80</v>
@@ -31184,7 +31180,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31205,18 +31201,18 @@
         <v>80</v>
       </c>
       <c r="AL235" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="AM235" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN235" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="AM235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN235" t="s" s="2">
-        <v>957</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31328,7 +31324,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31442,7 +31438,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -31465,13 +31461,13 @@
         <v>89</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>992</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>993</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31522,7 +31518,7 @@
         <v>80</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>78</v>
@@ -31543,7 +31539,7 @@
         <v>80</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>80</v>
@@ -31554,7 +31550,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31666,7 +31662,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31780,7 +31776,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31806,10 +31802,10 @@
         <v>660</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>944</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>662</v>
@@ -31896,7 +31892,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -32012,7 +32008,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -32038,10 +32034,10 @@
         <v>90</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
@@ -32126,7 +32122,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32152,10 +32148,10 @@
         <v>102</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
@@ -32240,7 +32236,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32266,10 +32262,10 @@
         <v>108</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="L245" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="M245" t="s" s="2">
         <v>696</v>
@@ -32304,7 +32300,7 @@
       </c>
       <c r="X245" s="2"/>
       <c r="Y245" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z245" t="s" s="2">
         <v>80</v>
@@ -32354,7 +32350,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32377,13 +32373,13 @@
         <v>89</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="L246" t="s" s="2">
         <v>994</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>995</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
@@ -32434,7 +32430,7 @@
         <v>80</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>78</v>
@@ -32455,7 +32451,7 @@
         <v>80</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>80</v>
@@ -32466,7 +32462,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32578,7 +32574,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -32692,7 +32688,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32718,10 +32714,10 @@
         <v>660</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M249" t="s" s="2">
         <v>662</v>
@@ -32808,7 +32804,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32924,7 +32920,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32950,10 +32946,10 @@
         <v>90</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
@@ -33038,7 +33034,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33064,10 +33060,10 @@
         <v>102</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
@@ -33152,7 +33148,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33178,10 +33174,10 @@
         <v>108</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="L253" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="M253" t="s" s="2">
         <v>696</v>
@@ -33268,7 +33264,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33291,19 +33287,19 @@
         <v>89</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="L254" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="M254" t="s" s="2">
         <v>1003</v>
       </c>
-      <c r="L254" t="s" s="2">
-        <v>1003</v>
-      </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>1004</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>80</v>
@@ -33352,7 +33348,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33373,18 +33369,18 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="AM254" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN254" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="AM254" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN254" t="s" s="2">
-        <v>1008</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33496,7 +33492,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33610,7 +33606,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33633,16 +33629,16 @@
         <v>89</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L257" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="M257" t="s" s="2">
         <v>1012</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>1012</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>1013</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" t="s" s="2">
@@ -33692,7 +33688,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33713,7 +33709,7 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
@@ -33724,7 +33720,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33836,7 +33832,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33950,7 +33946,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33976,13 +33972,13 @@
         <v>660</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L260" t="s" s="2">
+      <c r="M260" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M260" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N260" t="s" s="2">
         <v>663</v>
@@ -34066,7 +34062,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34092,16 +34088,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L261" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M261" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34184,7 +34180,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34210,16 +34206,16 @@
         <v>90</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>80</v>
@@ -34300,7 +34296,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34326,16 +34322,16 @@
         <v>102</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>80</v>
@@ -34364,7 +34360,7 @@
       </c>
       <c r="X263" s="2"/>
       <c r="Y263" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>80</v>
@@ -34414,7 +34410,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34440,16 +34436,16 @@
         <v>108</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L264" t="s" s="2">
+      <c r="M264" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M264" t="s" s="2">
+      <c r="N264" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>80</v>
@@ -34530,7 +34526,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34553,16 +34549,16 @@
         <v>89</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" t="s" s="2">
@@ -34612,7 +34608,7 @@
         <v>80</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>78</v>
@@ -34633,7 +34629,7 @@
         <v>80</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>80</v>
@@ -34644,7 +34640,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34756,7 +34752,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34870,7 +34866,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34896,13 +34892,13 @@
         <v>660</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L268" t="s" s="2">
+      <c r="M268" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M268" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N268" t="s" s="2">
         <v>663</v>
@@ -34986,7 +34982,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -35012,16 +35008,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L269" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M269" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -35104,7 +35100,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35130,16 +35126,16 @@
         <v>90</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>80</v>
@@ -35220,7 +35216,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35246,16 +35242,16 @@
         <v>102</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M271" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>80</v>
@@ -35284,7 +35280,7 @@
       </c>
       <c r="X271" s="2"/>
       <c r="Y271" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>80</v>
@@ -35334,7 +35330,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35360,16 +35356,16 @@
         <v>108</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L272" t="s" s="2">
+      <c r="M272" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M272" t="s" s="2">
+      <c r="N272" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>80</v>
@@ -35450,7 +35446,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35473,19 +35469,19 @@
         <v>89</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="L273" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="M273" t="s" s="2">
         <v>1047</v>
       </c>
-      <c r="L273" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="M273" t="s" s="2">
+      <c r="N273" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35534,7 +35530,7 @@
         <v>80</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>78</v>
@@ -35555,7 +35551,7 @@
         <v>80</v>
       </c>
       <c r="AL273" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AM273" t="s" s="2">
         <v>80</v>
@@ -35566,7 +35562,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35678,7 +35674,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35792,7 +35788,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35818,13 +35814,13 @@
         <v>660</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L276" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L276" t="s" s="2">
+      <c r="M276" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M276" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N276" t="s" s="2">
         <v>663</v>
@@ -35908,7 +35904,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35934,16 +35930,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M277" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -36026,7 +36022,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36052,16 +36048,16 @@
         <v>90</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36142,7 +36138,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36168,16 +36164,16 @@
         <v>102</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M279" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>80</v>
@@ -36206,7 +36202,7 @@
       </c>
       <c r="X279" s="2"/>
       <c r="Y279" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z279" t="s" s="2">
         <v>80</v>
@@ -36256,7 +36252,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36282,16 +36278,16 @@
         <v>108</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L280" t="s" s="2">
+      <c r="M280" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M280" t="s" s="2">
+      <c r="N280" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>80</v>
@@ -36372,7 +36368,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36395,19 +36391,19 @@
         <v>89</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="N281" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36456,7 +36452,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36477,7 +36473,7 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
@@ -36488,7 +36484,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36600,7 +36596,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36714,7 +36710,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36740,13 +36736,13 @@
         <v>660</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L284" t="s" s="2">
+      <c r="M284" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M284" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N284" t="s" s="2">
         <v>663</v>
@@ -36830,7 +36826,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36856,16 +36852,16 @@
         <v>108</v>
       </c>
       <c r="K285" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L285" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M285" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>80</v>
@@ -36948,7 +36944,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36974,16 +36970,16 @@
         <v>90</v>
       </c>
       <c r="K286" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L286" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L286" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M286" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>80</v>
@@ -37064,7 +37060,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37090,16 +37086,16 @@
         <v>102</v>
       </c>
       <c r="K287" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L287" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L287" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>80</v>
@@ -37128,7 +37124,7 @@
       </c>
       <c r="X287" s="2"/>
       <c r="Y287" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>80</v>
@@ -37178,7 +37174,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37204,16 +37200,16 @@
         <v>108</v>
       </c>
       <c r="K288" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L288" t="s" s="2">
+      <c r="M288" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M288" t="s" s="2">
+      <c r="N288" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>80</v>
@@ -37294,7 +37290,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37317,13 +37313,13 @@
         <v>80</v>
       </c>
       <c r="J289" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="K289" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="K289" t="s" s="2">
+      <c r="L289" t="s" s="2">
         <v>1073</v>
-      </c>
-      <c r="L289" t="s" s="2">
-        <v>1074</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -37374,7 +37370,7 @@
         <v>80</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37392,10 +37388,10 @@
         <v>80</v>
       </c>
       <c r="AK289" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="AL289" t="s" s="2">
         <v>1075</v>
-      </c>
-      <c r="AL289" t="s" s="2">
-        <v>1076</v>
       </c>
       <c r="AM289" t="s" s="2">
         <v>80</v>
@@ -37406,7 +37402,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37518,7 +37514,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37628,10 +37624,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="B292" t="s" s="2">
         <v>1078</v>
-      </c>
-      <c r="B292" t="s" s="2">
-        <v>1079</v>
       </c>
       <c r="C292" t="s" s="2">
         <v>80</v>
@@ -37653,13 +37649,13 @@
         <v>80</v>
       </c>
       <c r="J292" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="K292" t="s" s="2">
         <v>1080</v>
       </c>
-      <c r="K292" t="s" s="2">
+      <c r="L292" t="s" s="2">
         <v>1081</v>
-      </c>
-      <c r="L292" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -37742,7 +37738,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37854,7 +37850,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37966,7 +37962,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37992,13 +37988,13 @@
         <v>102</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>1086</v>
       </c>
-      <c r="L295" t="s" s="2">
+      <c r="M295" t="s" s="2">
         <v>1087</v>
-      </c>
-      <c r="M295" t="s" s="2">
-        <v>1088</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" t="s" s="2">
@@ -38006,49 +38002,49 @@
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="R295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD295" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE295" t="s" s="2">
         <v>1089</v>
-      </c>
-      <c r="R295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD295" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE295" t="s" s="2">
-        <v>1090</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>88</v>
@@ -38080,7 +38076,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38106,10 +38102,10 @@
         <v>189</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -38158,7 +38154,7 @@
         <v>315</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>78</v>
@@ -38190,10 +38186,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C297" t="s" s="2">
         <v>80</v>
@@ -38218,10 +38214,10 @@
         <v>189</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>1095</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>1096</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
@@ -38272,7 +38268,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38304,7 +38300,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38416,7 +38412,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38530,7 +38526,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38556,13 +38552,13 @@
         <v>327</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N300" t="s" s="2">
         <v>331</v>
@@ -38594,7 +38590,7 @@
       </c>
       <c r="X300" s="2"/>
       <c r="Y300" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>80</v>
@@ -38644,7 +38640,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38670,13 +38666,13 @@
         <v>90</v>
       </c>
       <c r="K301" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>1102</v>
       </c>
-      <c r="L301" t="s" s="2">
+      <c r="M301" t="s" s="2">
         <v>1103</v>
-      </c>
-      <c r="M301" t="s" s="2">
-        <v>1104</v>
       </c>
       <c r="N301" t="s" s="2">
         <v>377</v>
@@ -38760,10 +38756,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C302" t="s" s="2">
         <v>80</v>
@@ -38785,13 +38781,13 @@
         <v>80</v>
       </c>
       <c r="J302" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="K302" t="s" s="2">
         <v>1106</v>
       </c>
-      <c r="K302" t="s" s="2">
-        <v>1107</v>
-      </c>
       <c r="L302" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -38874,7 +38870,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38990,7 +38986,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39013,16 +39009,16 @@
         <v>80</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>1110</v>
       </c>
-      <c r="L304" t="s" s="2">
+      <c r="M304" t="s" s="2">
         <v>1111</v>
-      </c>
-      <c r="M304" t="s" s="2">
-        <v>1112</v>
       </c>
       <c r="N304" s="2"/>
       <c r="O304" t="s" s="2">
@@ -39072,7 +39068,7 @@
         <v>80</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>78</v>
@@ -39093,7 +39089,7 @@
         <v>80</v>
       </c>
       <c r="AL304" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AM304" t="s" s="2">
         <v>80</v>
@@ -39104,7 +39100,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39216,7 +39212,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39330,7 +39326,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39446,7 +39442,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39469,16 +39465,16 @@
         <v>80</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>1118</v>
       </c>
-      <c r="L308" t="s" s="2">
-        <v>1119</v>
-      </c>
       <c r="M308" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N308" s="2"/>
       <c r="O308" t="s" s="2">
@@ -39528,7 +39524,7 @@
         <v>80</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>78</v>
@@ -39549,7 +39545,7 @@
         <v>80</v>
       </c>
       <c r="AL308" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AM308" t="s" s="2">
         <v>80</v>
@@ -39560,7 +39556,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39672,7 +39668,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39786,7 +39782,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39812,13 +39808,13 @@
         <v>660</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L311" t="s" s="2">
+      <c r="M311" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M311" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N311" t="s" s="2">
         <v>663</v>
@@ -39902,7 +39898,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39928,16 +39924,16 @@
         <v>108</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L312" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M312" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>80</v>
@@ -40020,7 +40016,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40046,16 +40042,16 @@
         <v>90</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M313" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>80</v>
@@ -40136,7 +40132,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40162,16 +40158,16 @@
         <v>102</v>
       </c>
       <c r="K314" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L314" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>80</v>
@@ -40200,7 +40196,7 @@
       </c>
       <c r="X314" s="2"/>
       <c r="Y314" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z314" t="s" s="2">
         <v>80</v>
@@ -40250,7 +40246,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40276,16 +40272,16 @@
         <v>108</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L315" t="s" s="2">
+      <c r="M315" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M315" t="s" s="2">
+      <c r="N315" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>80</v>
@@ -40366,7 +40362,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40392,13 +40388,13 @@
         <v>654</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>1129</v>
       </c>
-      <c r="L316" t="s" s="2">
-        <v>1130</v>
-      </c>
       <c r="M316" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N316" s="2"/>
       <c r="O316" t="s" s="2">
@@ -40448,7 +40444,7 @@
         <v>80</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>78</v>
@@ -40469,7 +40465,7 @@
         <v>80</v>
       </c>
       <c r="AL316" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AM316" t="s" s="2">
         <v>80</v>
@@ -40480,7 +40476,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40592,7 +40588,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40706,7 +40702,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40732,13 +40728,13 @@
         <v>660</v>
       </c>
       <c r="K319" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L319" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L319" t="s" s="2">
+      <c r="M319" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M319" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N319" t="s" s="2">
         <v>663</v>
@@ -40822,7 +40818,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40848,16 +40844,16 @@
         <v>108</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M320" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>80</v>
@@ -40940,7 +40936,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -40966,16 +40962,16 @@
         <v>90</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M321" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>80</v>
@@ -41056,7 +41052,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -41082,16 +41078,16 @@
         <v>102</v>
       </c>
       <c r="K322" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L322" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M322" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>80</v>
@@ -41172,7 +41168,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41198,16 +41194,16 @@
         <v>108</v>
       </c>
       <c r="K323" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L323" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L323" t="s" s="2">
+      <c r="M323" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M323" t="s" s="2">
+      <c r="N323" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>80</v>
@@ -41288,7 +41284,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41314,13 +41310,13 @@
         <v>654</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>1140</v>
       </c>
-      <c r="L324" t="s" s="2">
-        <v>1141</v>
-      </c>
       <c r="M324" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" t="s" s="2">
@@ -41370,7 +41366,7 @@
         <v>80</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>78</v>
@@ -41391,7 +41387,7 @@
         <v>80</v>
       </c>
       <c r="AL324" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AM324" t="s" s="2">
         <v>80</v>
@@ -41402,7 +41398,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41514,7 +41510,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -41628,7 +41624,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41654,13 +41650,13 @@
         <v>660</v>
       </c>
       <c r="K327" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L327" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L327" t="s" s="2">
+      <c r="M327" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M327" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="N327" t="s" s="2">
         <v>663</v>
@@ -41744,7 +41740,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -41770,16 +41766,16 @@
         <v>108</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M328" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>80</v>
@@ -41862,7 +41858,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -41888,16 +41884,16 @@
         <v>90</v>
       </c>
       <c r="K329" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L329" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L329" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M329" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>80</v>
@@ -41978,7 +41974,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -42004,16 +42000,16 @@
         <v>102</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>1029</v>
-      </c>
-      <c r="L330" t="s" s="2">
-        <v>1030</v>
       </c>
       <c r="M330" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>80</v>
@@ -42094,7 +42090,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -42120,16 +42116,16 @@
         <v>108</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L331" t="s" s="2">
+      <c r="M331" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="M331" t="s" s="2">
+      <c r="N331" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N331" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>80</v>
@@ -42210,7 +42206,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -42236,16 +42232,16 @@
         <v>218</v>
       </c>
       <c r="K332" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="L332" t="s" s="2">
         <v>1150</v>
       </c>
-      <c r="L332" t="s" s="2">
+      <c r="M332" t="s" s="2">
         <v>1151</v>
       </c>
-      <c r="M332" t="s" s="2">
+      <c r="N332" t="s" s="2">
         <v>1152</v>
-      </c>
-      <c r="N332" t="s" s="2">
-        <v>1153</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>80</v>
@@ -42294,7 +42290,7 @@
         <v>80</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>78</v>
@@ -42312,10 +42308,10 @@
         <v>80</v>
       </c>
       <c r="AK332" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="AL332" t="s" s="2">
         <v>1154</v>
-      </c>
-      <c r="AL332" t="s" s="2">
-        <v>1155</v>
       </c>
       <c r="AM332" t="s" s="2">
         <v>80</v>
@@ -42326,7 +42322,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -42438,7 +42434,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -42552,7 +42548,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -42578,13 +42574,13 @@
         <v>438</v>
       </c>
       <c r="K335" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>1159</v>
       </c>
-      <c r="L335" t="s" s="2">
+      <c r="M335" t="s" s="2">
         <v>1160</v>
-      </c>
-      <c r="M335" t="s" s="2">
-        <v>1161</v>
       </c>
       <c r="N335" s="2"/>
       <c r="O335" t="s" s="2">
@@ -42634,16 +42630,16 @@
         <v>80</v>
       </c>
       <c r="AE335" t="s" s="2">
+        <v>1161</v>
+      </c>
+      <c r="AF335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG335" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH335" t="s" s="2">
         <v>1162</v>
-      </c>
-      <c r="AF335" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG335" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH335" t="s" s="2">
-        <v>1163</v>
       </c>
       <c r="AI335" t="s" s="2">
         <v>100</v>
@@ -42655,18 +42651,18 @@
         <v>80</v>
       </c>
       <c r="AL335" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="AM335" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN335" t="s" s="2">
         <v>1164</v>
-      </c>
-      <c r="AM335" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN335" t="s" s="2">
-        <v>1165</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -42692,66 +42688,66 @@
         <v>438</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="L336" t="s" s="2">
         <v>1167</v>
       </c>
-      <c r="L336" t="s" s="2">
+      <c r="M336" t="s" s="2">
         <v>1168</v>
-      </c>
-      <c r="M336" t="s" s="2">
-        <v>1169</v>
       </c>
       <c r="N336" s="2"/>
       <c r="O336" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P336" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="Q336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE336" t="s" s="2">
         <v>1170</v>
       </c>
-      <c r="Q336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE336" t="s" s="2">
-        <v>1171</v>
-      </c>
       <c r="AF336" t="s" s="2">
         <v>78</v>
       </c>
@@ -42759,7 +42755,7 @@
         <v>88</v>
       </c>
       <c r="AH336" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AI336" t="s" s="2">
         <v>100</v>
@@ -42771,18 +42767,18 @@
         <v>80</v>
       </c>
       <c r="AL336" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="AM336" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN336" t="s" s="2">
         <v>1172</v>
-      </c>
-      <c r="AM336" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN336" t="s" s="2">
-        <v>1173</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -42808,13 +42804,13 @@
         <v>777</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="L337" t="s" s="2">
         <v>1175</v>
       </c>
-      <c r="L337" t="s" s="2">
+      <c r="M337" t="s" s="2">
         <v>1176</v>
-      </c>
-      <c r="M337" t="s" s="2">
-        <v>1177</v>
       </c>
       <c r="N337" s="2"/>
       <c r="O337" t="s" s="2">
@@ -42864,7 +42860,7 @@
         <v>80</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>78</v>
@@ -42882,21 +42878,21 @@
         <v>80</v>
       </c>
       <c r="AK337" t="s" s="2">
+        <v>1177</v>
+      </c>
+      <c r="AL337" t="s" s="2">
         <v>1178</v>
       </c>
-      <c r="AL337" t="s" s="2">
+      <c r="AM337" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN337" t="s" s="2">
         <v>1179</v>
-      </c>
-      <c r="AM337" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN337" t="s" s="2">
-        <v>1180</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -42919,16 +42915,16 @@
         <v>80</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K338" t="s" s="2">
+        <v>1181</v>
+      </c>
+      <c r="L338" t="s" s="2">
         <v>1182</v>
       </c>
-      <c r="L338" t="s" s="2">
-        <v>1183</v>
-      </c>
       <c r="M338" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N338" s="2"/>
       <c r="O338" t="s" s="2">
@@ -42978,7 +42974,7 @@
         <v>80</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>78</v>
@@ -42996,21 +42992,21 @@
         <v>80</v>
       </c>
       <c r="AK338" t="s" s="2">
+        <v>1183</v>
+      </c>
+      <c r="AL338" t="s" s="2">
         <v>1184</v>
       </c>
-      <c r="AL338" t="s" s="2">
+      <c r="AM338" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN338" t="s" s="2">
         <v>1185</v>
-      </c>
-      <c r="AM338" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN338" t="s" s="2">
-        <v>1186</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -43122,7 +43118,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -43236,7 +43232,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -43262,13 +43258,13 @@
         <v>660</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N341" t="s" s="2">
         <v>663</v>
@@ -43352,7 +43348,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -43378,16 +43374,16 @@
         <v>108</v>
       </c>
       <c r="K342" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L342" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L342" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M342" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>80</v>
@@ -43470,7 +43466,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -43496,16 +43492,16 @@
         <v>90</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="M343" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>80</v>
@@ -43586,7 +43582,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -43612,16 +43608,16 @@
         <v>102</v>
       </c>
       <c r="K344" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L344" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="L344" t="s" s="2">
-        <v>1196</v>
       </c>
       <c r="M344" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>80</v>
@@ -43631,7 +43627,7 @@
         <v>80</v>
       </c>
       <c r="R344" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S344" t="s" s="2">
         <v>80</v>
@@ -43702,7 +43698,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -43728,16 +43724,16 @@
         <v>108</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M345" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="N345" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>80</v>
@@ -43766,7 +43762,7 @@
       </c>
       <c r="X345" s="2"/>
       <c r="Y345" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Z345" t="s" s="2">
         <v>80</v>
@@ -43816,7 +43812,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -43842,13 +43838,13 @@
         <v>654</v>
       </c>
       <c r="K346" t="s" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L346" t="s" s="2">
         <v>1201</v>
       </c>
-      <c r="L346" t="s" s="2">
+      <c r="M346" t="s" s="2">
         <v>1202</v>
-      </c>
-      <c r="M346" t="s" s="2">
-        <v>1203</v>
       </c>
       <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
@@ -43898,7 +43894,7 @@
         <v>80</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>78</v>
@@ -43916,10 +43912,10 @@
         <v>80</v>
       </c>
       <c r="AK346" t="s" s="2">
+        <v>1203</v>
+      </c>
+      <c r="AL346" t="s" s="2">
         <v>1204</v>
-      </c>
-      <c r="AL346" t="s" s="2">
-        <v>1205</v>
       </c>
       <c r="AM346" t="s" s="2">
         <v>80</v>
@@ -43930,7 +43926,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -44042,7 +44038,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -44156,7 +44152,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -44182,13 +44178,13 @@
         <v>660</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N349" t="s" s="2">
         <v>663</v>
@@ -44272,7 +44268,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -44298,16 +44294,16 @@
         <v>108</v>
       </c>
       <c r="K350" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L350" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L350" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M350" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>80</v>
@@ -44390,7 +44386,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -44416,16 +44412,16 @@
         <v>90</v>
       </c>
       <c r="K351" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="L351" t="s" s="2">
         <v>1211</v>
-      </c>
-      <c r="L351" t="s" s="2">
-        <v>1212</v>
       </c>
       <c r="M351" t="s" s="2">
         <v>575</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>80</v>
@@ -44506,7 +44502,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -44532,16 +44528,16 @@
         <v>102</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="M352" t="s" s="2">
         <v>499</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>80</v>
@@ -44622,7 +44618,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -44648,16 +44644,16 @@
         <v>108</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="M353" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="N353" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>80</v>
@@ -44738,7 +44734,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -44764,10 +44760,10 @@
         <v>225</v>
       </c>
       <c r="K354" t="s" s="2">
+        <v>1217</v>
+      </c>
+      <c r="L354" t="s" s="2">
         <v>1218</v>
-      </c>
-      <c r="L354" t="s" s="2">
-        <v>1219</v>
       </c>
       <c r="M354" t="s" s="2">
         <v>434</v>
@@ -44820,7 +44816,7 @@
         <v>80</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>78</v>
@@ -44841,7 +44837,7 @@
         <v>80</v>
       </c>
       <c r="AL354" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AM354" t="s" s="2">
         <v>471</v>
@@ -44852,7 +44848,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -44875,13 +44871,13 @@
         <v>80</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K355" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="L355" t="s" s="2">
         <v>1222</v>
-      </c>
-      <c r="L355" t="s" s="2">
-        <v>1223</v>
       </c>
       <c r="M355" s="2"/>
       <c r="N355" s="2"/>
@@ -44932,7 +44928,7 @@
         <v>80</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>78</v>
@@ -44950,10 +44946,10 @@
         <v>80</v>
       </c>
       <c r="AK355" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AL355" t="s" s="2">
         <v>1224</v>
-      </c>
-      <c r="AL355" t="s" s="2">
-        <v>1225</v>
       </c>
       <c r="AM355" t="s" s="2">
         <v>80</v>
@@ -44964,7 +44960,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -45076,7 +45072,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -45190,7 +45186,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -45306,7 +45302,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -45332,13 +45328,13 @@
         <v>189</v>
       </c>
       <c r="K359" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="M359" t="s" s="2">
         <v>1230</v>
-      </c>
-      <c r="L359" t="s" s="2">
-        <v>1230</v>
-      </c>
-      <c r="M359" t="s" s="2">
-        <v>1231</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" t="s" s="2">
@@ -45368,7 +45364,7 @@
       </c>
       <c r="X359" s="2"/>
       <c r="Y359" t="s" s="2">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Z359" t="s" s="2">
         <v>80</v>
@@ -45386,7 +45382,7 @@
         <v>80</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>88</v>
@@ -45404,21 +45400,21 @@
         <v>80</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AL359" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="AM359" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN359" t="s" s="2">
         <v>1233</v>
-      </c>
-      <c r="AM359" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN359" t="s" s="2">
-        <v>1234</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -45530,7 +45526,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -45644,7 +45640,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -45670,13 +45666,13 @@
         <v>327</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="L362" t="s" s="2">
         <v>1238</v>
       </c>
-      <c r="L362" t="s" s="2">
-        <v>1239</v>
-      </c>
       <c r="M362" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N362" t="s" s="2">
         <v>331</v>
@@ -45760,7 +45756,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -45872,7 +45868,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -45986,7 +45982,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -46012,10 +46008,10 @@
         <v>102</v>
       </c>
       <c r="K365" t="s" s="2">
+        <v>1242</v>
+      </c>
+      <c r="L365" t="s" s="2">
         <v>1243</v>
-      </c>
-      <c r="L365" t="s" s="2">
-        <v>1244</v>
       </c>
       <c r="M365" t="s" s="2">
         <v>340</v>
@@ -46028,7 +46024,7 @@
       </c>
       <c r="P365" s="2"/>
       <c r="Q365" t="s" s="2">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R365" t="s" s="2">
         <v>80</v>
@@ -46102,7 +46098,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -46216,7 +46212,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -46242,10 +46238,10 @@
         <v>108</v>
       </c>
       <c r="K367" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="L367" t="s" s="2">
         <v>1238</v>
-      </c>
-      <c r="L367" t="s" s="2">
-        <v>1239</v>
       </c>
       <c r="M367" s="2"/>
       <c r="N367" t="s" s="2">
@@ -46330,7 +46326,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -46356,10 +46352,10 @@
         <v>90</v>
       </c>
       <c r="K368" t="s" s="2">
+        <v>1248</v>
+      </c>
+      <c r="L368" t="s" s="2">
         <v>1249</v>
-      </c>
-      <c r="L368" t="s" s="2">
-        <v>1250</v>
       </c>
       <c r="M368" s="2"/>
       <c r="N368" t="s" s="2">
@@ -46444,7 +46440,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -46470,13 +46466,13 @@
         <v>297</v>
       </c>
       <c r="K369" t="s" s="2">
+        <v>1251</v>
+      </c>
+      <c r="L369" t="s" s="2">
         <v>1252</v>
       </c>
-      <c r="L369" t="s" s="2">
+      <c r="M369" t="s" s="2">
         <v>1253</v>
-      </c>
-      <c r="M369" t="s" s="2">
-        <v>1254</v>
       </c>
       <c r="N369" t="s" s="2">
         <v>369</v>
@@ -46560,7 +46556,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -46586,13 +46582,13 @@
         <v>90</v>
       </c>
       <c r="K370" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="L370" t="s" s="2">
         <v>1102</v>
       </c>
-      <c r="L370" t="s" s="2">
+      <c r="M370" t="s" s="2">
         <v>1103</v>
-      </c>
-      <c r="M370" t="s" s="2">
-        <v>1104</v>
       </c>
       <c r="N370" t="s" s="2">
         <v>377</v>
@@ -46676,7 +46672,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -46702,13 +46698,13 @@
         <v>189</v>
       </c>
       <c r="K371" t="s" s="2">
+        <v>1256</v>
+      </c>
+      <c r="L371" t="s" s="2">
         <v>1257</v>
       </c>
-      <c r="L371" t="s" s="2">
+      <c r="M371" t="s" s="2">
         <v>1258</v>
-      </c>
-      <c r="M371" t="s" s="2">
-        <v>1259</v>
       </c>
       <c r="N371" s="2"/>
       <c r="O371" t="s" s="2">
@@ -46737,11 +46733,11 @@
         <v>265</v>
       </c>
       <c r="X371" t="s" s="2">
+        <v>1259</v>
+      </c>
+      <c r="Y371" t="s" s="2">
         <v>1260</v>
       </c>
-      <c r="Y371" t="s" s="2">
-        <v>1261</v>
-      </c>
       <c r="Z371" t="s" s="2">
         <v>80</v>
       </c>
@@ -46758,7 +46754,7 @@
         <v>80</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>78</v>
@@ -46776,21 +46772,21 @@
         <v>80</v>
       </c>
       <c r="AK371" t="s" s="2">
+        <v>1261</v>
+      </c>
+      <c r="AL371" t="s" s="2">
         <v>1262</v>
       </c>
-      <c r="AL371" t="s" s="2">
+      <c r="AM371" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN371" t="s" s="2">
         <v>1263</v>
-      </c>
-      <c r="AM371" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN371" t="s" s="2">
-        <v>1264</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -46813,13 +46809,13 @@
         <v>80</v>
       </c>
       <c r="J372" t="s" s="2">
+        <v>1265</v>
+      </c>
+      <c r="K372" t="s" s="2">
         <v>1266</v>
       </c>
-      <c r="K372" t="s" s="2">
+      <c r="L372" t="s" s="2">
         <v>1267</v>
-      </c>
-      <c r="L372" t="s" s="2">
-        <v>1268</v>
       </c>
       <c r="M372" t="s" s="2">
         <v>434</v>
@@ -46872,7 +46868,7 @@
         <v>80</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>78</v>
@@ -46887,13 +46883,13 @@
         <v>100</v>
       </c>
       <c r="AJ372" t="s" s="2">
+        <v>1268</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>1261</v>
+      </c>
+      <c r="AL372" t="s" s="2">
         <v>1269</v>
-      </c>
-      <c r="AK372" t="s" s="2">
-        <v>1262</v>
-      </c>
-      <c r="AL372" t="s" s="2">
-        <v>1270</v>
       </c>
       <c r="AM372" t="s" s="2">
         <v>80</v>
@@ -46904,11 +46900,11 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -46927,16 +46923,16 @@
         <v>80</v>
       </c>
       <c r="J373" t="s" s="2">
+        <v>1272</v>
+      </c>
+      <c r="K373" t="s" s="2">
         <v>1273</v>
       </c>
-      <c r="K373" t="s" s="2">
+      <c r="L373" t="s" s="2">
         <v>1274</v>
       </c>
-      <c r="L373" t="s" s="2">
+      <c r="M373" t="s" s="2">
         <v>1275</v>
-      </c>
-      <c r="M373" t="s" s="2">
-        <v>1276</v>
       </c>
       <c r="N373" s="2"/>
       <c r="O373" t="s" s="2">
@@ -46986,7 +46982,7 @@
         <v>80</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>78</v>
@@ -47007,7 +47003,7 @@
         <v>80</v>
       </c>
       <c r="AL373" t="s" s="2">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="AM373" t="s" s="2">
         <v>80</v>
@@ -47018,7 +47014,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -47041,16 +47037,16 @@
         <v>80</v>
       </c>
       <c r="J374" t="s" s="2">
+        <v>1278</v>
+      </c>
+      <c r="K374" t="s" s="2">
         <v>1279</v>
       </c>
-      <c r="K374" t="s" s="2">
+      <c r="L374" t="s" s="2">
         <v>1280</v>
       </c>
-      <c r="L374" t="s" s="2">
+      <c r="M374" t="s" s="2">
         <v>1281</v>
-      </c>
-      <c r="M374" t="s" s="2">
-        <v>1282</v>
       </c>
       <c r="N374" s="2"/>
       <c r="O374" t="s" s="2">
@@ -47100,7 +47096,7 @@
         <v>80</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>78</v>
@@ -47115,13 +47111,13 @@
         <v>100</v>
       </c>
       <c r="AJ374" t="s" s="2">
+        <v>1282</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL374" t="s" s="2">
         <v>1283</v>
-      </c>
-      <c r="AK374" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL374" t="s" s="2">
-        <v>1284</v>
       </c>
       <c r="AM374" t="s" s="2">
         <v>80</v>
